--- a/SchedulingData/dynamic11/pso/scheduling2_2.xlsx
+++ b/SchedulingData/dynamic11/pso/scheduling2_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,306 +462,306 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>247.06</v>
+        <v>261.62</v>
       </c>
       <c r="D2" t="n">
-        <v>282.22</v>
+        <v>316.68</v>
       </c>
       <c r="E2" t="n">
-        <v>10.968</v>
+        <v>11.992</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>214.82</v>
+        <v>203.24</v>
       </c>
       <c r="D3" t="n">
-        <v>257.82</v>
+        <v>243.3</v>
       </c>
       <c r="E3" t="n">
-        <v>14.408</v>
+        <v>16.26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>229.8</v>
+        <v>235.8</v>
       </c>
       <c r="D4" t="n">
-        <v>288.4</v>
+        <v>284.5</v>
       </c>
       <c r="E4" t="n">
-        <v>11.34</v>
+        <v>13.74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>274.3</v>
+        <v>233.3</v>
       </c>
       <c r="D5" t="n">
-        <v>338.1</v>
+        <v>295.04</v>
       </c>
       <c r="E5" t="n">
-        <v>10.32</v>
+        <v>14.016</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>210.88</v>
+        <v>243.3</v>
       </c>
       <c r="D6" t="n">
-        <v>258</v>
+        <v>300.52</v>
       </c>
       <c r="E6" t="n">
-        <v>14.36</v>
+        <v>11.668</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>275.08</v>
+        <v>295.04</v>
       </c>
       <c r="D7" t="n">
-        <v>341.7</v>
+        <v>349.52</v>
       </c>
       <c r="E7" t="n">
-        <v>8.56</v>
+        <v>11.208</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>282.22</v>
+        <v>214.4</v>
       </c>
       <c r="D8" t="n">
-        <v>334.12</v>
+        <v>298.1</v>
       </c>
       <c r="E8" t="n">
-        <v>7.888</v>
+        <v>12.82</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>334.12</v>
+        <v>316.68</v>
       </c>
       <c r="D9" t="n">
-        <v>376.92</v>
+        <v>386.06</v>
       </c>
       <c r="E9" t="n">
-        <v>5.248</v>
+        <v>9.183999999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>338.1</v>
+        <v>300.52</v>
       </c>
       <c r="D10" t="n">
-        <v>407.38</v>
+        <v>346.58</v>
       </c>
       <c r="E10" t="n">
-        <v>7.512</v>
+        <v>8.692</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>341.7</v>
+        <v>284.5</v>
       </c>
       <c r="D11" t="n">
-        <v>380.34</v>
+        <v>341.8</v>
       </c>
       <c r="E11" t="n">
-        <v>6.316</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>380.34</v>
+        <v>217.66</v>
       </c>
       <c r="D12" t="n">
-        <v>420.4</v>
+        <v>260.66</v>
       </c>
       <c r="E12" t="n">
-        <v>3.94</v>
+        <v>13.624</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>420.4</v>
+        <v>298.1</v>
       </c>
       <c r="D13" t="n">
-        <v>474.68</v>
+        <v>350.2</v>
       </c>
       <c r="E13" t="n">
-        <v>0.132</v>
+        <v>9.74</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>474.68</v>
+        <v>260.66</v>
       </c>
       <c r="D14" t="n">
-        <v>580.8200000000001</v>
+        <v>300.82</v>
       </c>
       <c r="E14" t="n">
-        <v>30</v>
+        <v>11.248</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>407.38</v>
+        <v>386.06</v>
       </c>
       <c r="D15" t="n">
-        <v>485.98</v>
+        <v>449.56</v>
       </c>
       <c r="E15" t="n">
-        <v>4.272</v>
+        <v>5.944</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>485.98</v>
+        <v>350.2</v>
       </c>
       <c r="D16" t="n">
-        <v>550.08</v>
+        <v>392.96</v>
       </c>
       <c r="E16" t="n">
-        <v>0.972</v>
+        <v>6.604</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>550.08</v>
+        <v>449.56</v>
       </c>
       <c r="D17" t="n">
-        <v>634.74</v>
+        <v>501.48</v>
       </c>
       <c r="E17" t="n">
-        <v>30</v>
+        <v>3.352</v>
       </c>
     </row>
     <row r="18">
@@ -770,22 +770,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>257.82</v>
+        <v>349.52</v>
       </c>
       <c r="D18" t="n">
-        <v>303.12</v>
+        <v>420.54</v>
       </c>
       <c r="E18" t="n">
-        <v>11.988</v>
+        <v>7.736</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -793,94 +793,94 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>258</v>
+        <v>300.82</v>
       </c>
       <c r="D19" t="n">
-        <v>316.64</v>
+        <v>379.16</v>
       </c>
       <c r="E19" t="n">
-        <v>10.616</v>
+        <v>7.504</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>303.12</v>
+        <v>341.8</v>
       </c>
       <c r="D20" t="n">
-        <v>356.62</v>
+        <v>390.46</v>
       </c>
       <c r="E20" t="n">
-        <v>8.747999999999999</v>
+        <v>8.343999999999999</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>634.74</v>
+        <v>420.54</v>
       </c>
       <c r="D21" t="n">
-        <v>707.5</v>
+        <v>486.04</v>
       </c>
       <c r="E21" t="n">
-        <v>26.864</v>
+        <v>5.316</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>316.64</v>
+        <v>486.04</v>
       </c>
       <c r="D22" t="n">
-        <v>358.74</v>
+        <v>548.34</v>
       </c>
       <c r="E22" t="n">
-        <v>7.536</v>
+        <v>3.196</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>356.62</v>
+        <v>346.58</v>
       </c>
       <c r="D23" t="n">
-        <v>384.62</v>
+        <v>420.96</v>
       </c>
       <c r="E23" t="n">
-        <v>6.588</v>
+        <v>4.884</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -888,48 +888,48 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>384.62</v>
+        <v>390.46</v>
       </c>
       <c r="D24" t="n">
-        <v>431.82</v>
+        <v>437.26</v>
       </c>
       <c r="E24" t="n">
-        <v>4.508</v>
+        <v>6.264</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>431.82</v>
+        <v>501.48</v>
       </c>
       <c r="D25" t="n">
-        <v>499.36</v>
+        <v>548.38</v>
       </c>
       <c r="E25" t="n">
-        <v>1.824</v>
+        <v>1.272</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>499.36</v>
+        <v>548.38</v>
       </c>
       <c r="D26" t="n">
-        <v>572.71</v>
+        <v>617.74</v>
       </c>
       <c r="E26" t="n">
         <v>30</v>
@@ -937,97 +937,97 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>358.74</v>
+        <v>437.26</v>
       </c>
       <c r="D27" t="n">
-        <v>407.92</v>
+        <v>513.86</v>
       </c>
       <c r="E27" t="n">
-        <v>4.728</v>
+        <v>1.224</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>288.4</v>
+        <v>513.86</v>
       </c>
       <c r="D28" t="n">
-        <v>343</v>
+        <v>602.91</v>
       </c>
       <c r="E28" t="n">
-        <v>8.48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>580.8200000000001</v>
+        <v>379.16</v>
       </c>
       <c r="D29" t="n">
-        <v>655.1</v>
+        <v>445.12</v>
       </c>
       <c r="E29" t="n">
-        <v>27.712</v>
+        <v>4.528</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>407.92</v>
+        <v>602.91</v>
       </c>
       <c r="D30" t="n">
-        <v>462.72</v>
+        <v>672.1900000000001</v>
       </c>
       <c r="E30" t="n">
-        <v>1.868</v>
+        <v>27.712</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>462.72</v>
+        <v>420.96</v>
       </c>
       <c r="D31" t="n">
-        <v>535.78</v>
+        <v>473.86</v>
       </c>
       <c r="E31" t="n">
-        <v>30</v>
+        <v>2.724</v>
       </c>
     </row>
     <row r="32">
@@ -1040,13 +1040,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>572.71</v>
+        <v>548.34</v>
       </c>
       <c r="D32" t="n">
-        <v>607.79</v>
+        <v>587.72</v>
       </c>
       <c r="E32" t="n">
-        <v>27.192</v>
+        <v>0.388</v>
       </c>
     </row>
     <row r="33">
@@ -1055,112 +1055,112 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>607.79</v>
+        <v>587.72</v>
       </c>
       <c r="D33" t="n">
-        <v>661.45</v>
+        <v>653.9400000000001</v>
       </c>
       <c r="E33" t="n">
-        <v>24.436</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>343</v>
+        <v>445.12</v>
       </c>
       <c r="D34" t="n">
-        <v>378.06</v>
+        <v>499.92</v>
       </c>
       <c r="E34" t="n">
-        <v>6.104</v>
+        <v>1.668</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>378.06</v>
+        <v>499.92</v>
       </c>
       <c r="D35" t="n">
-        <v>434.66</v>
+        <v>597.98</v>
       </c>
       <c r="E35" t="n">
-        <v>4.024</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>655.1</v>
+        <v>617.74</v>
       </c>
       <c r="D36" t="n">
-        <v>713.96</v>
+        <v>670.46</v>
       </c>
       <c r="E36" t="n">
-        <v>24.956</v>
+        <v>27.408</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>434.66</v>
+        <v>392.96</v>
       </c>
       <c r="D37" t="n">
-        <v>478.36</v>
+        <v>474.66</v>
       </c>
       <c r="E37" t="n">
-        <v>0.784</v>
+        <v>3.524</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>478.36</v>
+        <v>474.66</v>
       </c>
       <c r="D38" t="n">
-        <v>543.79</v>
+        <v>558.02</v>
       </c>
       <c r="E38" t="n">
-        <v>30</v>
+        <v>0.768</v>
       </c>
     </row>
     <row r="39">
@@ -1169,55 +1169,131 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>535.78</v>
+        <v>558.02</v>
       </c>
       <c r="D39" t="n">
-        <v>573.88</v>
+        <v>657.78</v>
       </c>
       <c r="E39" t="n">
-        <v>27.88</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>573.88</v>
+        <v>473.86</v>
       </c>
       <c r="D40" t="n">
-        <v>611.1</v>
+        <v>521.1799999999999</v>
       </c>
       <c r="E40" t="n">
-        <v>25.288</v>
+        <v>0.132</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
+        <v>1</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>depot2</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>521.1799999999999</v>
+      </c>
+      <c r="D41" t="n">
+        <v>627.22</v>
+      </c>
+      <c r="E41" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
         <v>5</v>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>pond52</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>376.92</v>
-      </c>
-      <c r="D41" t="n">
-        <v>418.56</v>
-      </c>
-      <c r="E41" t="n">
-        <v>2.704</v>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>pond9</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>672.1900000000001</v>
+      </c>
+      <c r="D42" t="n">
+        <v>715.89</v>
+      </c>
+      <c r="E42" t="n">
+        <v>24.472</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>3</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>pond36</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>597.98</v>
+      </c>
+      <c r="D43" t="n">
+        <v>657.58</v>
+      </c>
+      <c r="E43" t="n">
+        <v>26.7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>3</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>pond38</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>657.58</v>
+      </c>
+      <c r="D44" t="n">
+        <v>702.38</v>
+      </c>
+      <c r="E44" t="n">
+        <v>23.84</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>2</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>pond43</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>670.46</v>
+      </c>
+      <c r="D45" t="n">
+        <v>714</v>
+      </c>
+      <c r="E45" t="n">
+        <v>25.164</v>
       </c>
     </row>
   </sheetData>
